--- a/assignment_5/Section1_6.xlsx
+++ b/assignment_5/Section1_6.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Section1_6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Z1</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Z112</t>
+  </si>
+  <si>
+    <t>Z113</t>
+  </si>
+  <si>
+    <t>Z114</t>
   </si>
 </sst>
 </file>
@@ -897,15 +906,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O2" sqref="O2:O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -943,25 +952,34 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,25 +1017,37 @@
         <v>2</v>
       </c>
       <c r="M2">
+        <f>IF(L2=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>IF(L2=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>IF(L2=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>12</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>12</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>12</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,25 +1085,37 @@
         <v>4</v>
       </c>
       <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">IF(L3=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="1">IF(L3=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="2">IF(L3=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>9</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>9</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>9</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1111,25 +1153,37 @@
         <v>2</v>
       </c>
       <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>13</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>13</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1167,25 +1221,37 @@
         <v>2</v>
       </c>
       <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>11</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>29</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>29</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1223,25 +1289,37 @@
         <v>2</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>28</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>31</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1279,25 +1357,37 @@
         <v>4</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>11</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>11</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>8</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1335,25 +1425,37 @@
         <v>4</v>
       </c>
       <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>12</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>12</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>11</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1391,25 +1493,37 @@
         <v>4</v>
       </c>
       <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>34</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1447,25 +1561,37 @@
         <v>4</v>
       </c>
       <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>10</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>53</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1503,25 +1629,37 @@
         <v>4</v>
       </c>
       <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1559,25 +1697,37 @@
         <v>4</v>
       </c>
       <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>21</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>44</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1615,25 +1765,37 @@
         <v>4</v>
       </c>
       <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>20</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>20</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1671,25 +1833,37 @@
         <v>4</v>
       </c>
       <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>12</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>32</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>32</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1727,25 +1901,37 @@
         <v>4</v>
       </c>
       <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>16</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>16</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>16</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1783,25 +1969,37 @@
         <v>4</v>
       </c>
       <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>39</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>39</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>39</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1839,25 +2037,37 @@
         <v>4</v>
       </c>
       <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>23</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>34</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>34</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1895,25 +2105,37 @@
         <v>4</v>
       </c>
       <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>8</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>8</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>8</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1951,25 +2173,37 @@
         <v>4</v>
       </c>
       <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>15</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>15</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>6</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2007,25 +2241,37 @@
         <v>4</v>
       </c>
       <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>8</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>8</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>8</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2063,25 +2309,37 @@
         <v>4</v>
       </c>
       <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>24</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>32</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>32</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2119,25 +2377,37 @@
         <v>4</v>
       </c>
       <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>25</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>22</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <v>43</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2175,25 +2445,37 @@
         <v>4</v>
       </c>
       <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>14</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>56</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2231,25 +2513,37 @@
         <v>4</v>
       </c>
       <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>24</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>47</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>11</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2287,25 +2581,37 @@
         <v>4</v>
       </c>
       <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>6</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
         <v>43</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>43</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2343,25 +2649,37 @@
         <v>1</v>
       </c>
       <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>25</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>25</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2399,25 +2717,37 @@
         <v>4</v>
       </c>
       <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>12</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>12</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>12</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2455,25 +2785,37 @@
         <v>4</v>
       </c>
       <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>15</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>53</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>32</v>
       </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2511,25 +2853,37 @@
         <v>4</v>
       </c>
       <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>18</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>52</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>51</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2567,25 +2921,37 @@
         <v>4</v>
       </c>
       <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>13</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
         <v>11</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>21</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2623,25 +2989,37 @@
         <v>2</v>
       </c>
       <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>29</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
         <v>29</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2679,25 +3057,37 @@
         <v>2</v>
       </c>
       <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>7</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>7</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2735,25 +3125,37 @@
         <v>3</v>
       </c>
       <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>16</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>16</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>16</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2791,25 +3193,37 @@
         <v>2</v>
       </c>
       <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>10</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>10</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2847,25 +3261,37 @@
         <v>3</v>
       </c>
       <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>6</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>6</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2903,25 +3329,37 @@
         <v>4</v>
       </c>
       <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
         <v>8</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>43</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>7</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2959,25 +3397,37 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
         <v>27</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>27</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3015,25 +3465,37 @@
         <v>2</v>
       </c>
       <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>18</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>18</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>18</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3071,25 +3533,37 @@
         <v>4</v>
       </c>
       <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>6</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
         <v>5</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
         <v>47</v>
       </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3127,25 +3601,37 @@
         <v>2</v>
       </c>
       <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>19</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
         <v>29</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>29</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3183,25 +3669,37 @@
         <v>4</v>
       </c>
       <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>5</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>5</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>5</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3239,25 +3737,37 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
       <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
         <v>97</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3295,25 +3805,37 @@
         <v>4</v>
       </c>
       <c r="M43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
         <v>15</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>28</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>28</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3351,25 +3873,37 @@
         <v>4</v>
       </c>
       <c r="M44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
         <v>14</v>
       </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>4</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
       <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <v>7</v>
       </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3407,25 +3941,37 @@
         <v>4</v>
       </c>
       <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>9</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>9</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>3</v>
       </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3463,25 +4009,37 @@
         <v>4</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
         <v>39</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>39</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3519,25 +4077,37 @@
         <v>4</v>
       </c>
       <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>10</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>10</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>10</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3575,25 +4145,37 @@
         <v>4</v>
       </c>
       <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
         <v>6</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
         <v>5</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <v>46</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3631,25 +4213,37 @@
         <v>2</v>
       </c>
       <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>13</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
         <v>28</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>28</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3687,25 +4281,37 @@
         <v>4</v>
       </c>
       <c r="M50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>11</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
         <v>21</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <v>21</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3743,25 +4349,37 @@
         <v>1</v>
       </c>
       <c r="M51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>8</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
         <v>17</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
         <v>38</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3799,25 +4417,37 @@
         <v>4</v>
       </c>
       <c r="M52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
         <v>10</v>
       </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>10</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <v>10</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3855,25 +4485,37 @@
         <v>4</v>
       </c>
       <c r="M53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
         <v>6</v>
       </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
         <v>40</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <v>5</v>
       </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3911,25 +4553,37 @@
         <v>4</v>
       </c>
       <c r="M54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
         <v>18</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
         <v>22</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
         <v>9</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3967,25 +4621,37 @@
         <v>4</v>
       </c>
       <c r="M55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>16</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
         <v>16</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
         <v>21</v>
       </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4023,25 +4689,37 @@
         <v>4</v>
       </c>
       <c r="M56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P56">
         <v>7</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
         <v>26</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
         <v>26</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4079,25 +4757,37 @@
         <v>4</v>
       </c>
       <c r="M57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>14</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>14</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
         <v>14</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4135,25 +4825,37 @@
         <v>4</v>
       </c>
       <c r="M58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
         <v>16</v>
       </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>16</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>16</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4191,25 +4893,37 @@
         <v>3</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4247,25 +4961,37 @@
         <v>4</v>
       </c>
       <c r="M60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
         <v>19</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>6</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
         <v>19</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4303,25 +5029,37 @@
         <v>4</v>
       </c>
       <c r="M61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P61">
         <v>21</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
         <v>8</v>
       </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
         <v>10</v>
       </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4359,25 +5097,37 @@
         <v>4</v>
       </c>
       <c r="M62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P62">
         <v>18</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>18</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <v>18</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4415,25 +5165,37 @@
         <v>3</v>
       </c>
       <c r="M63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>31</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>31</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <v>13</v>
       </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4471,25 +5233,37 @@
         <v>4</v>
       </c>
       <c r="M64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>11</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
         <v>24</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
         <v>40</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4527,25 +5301,37 @@
         <v>4</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
         <v>5</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
         <v>47</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4583,25 +5369,37 @@
         <v>4</v>
       </c>
       <c r="M66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P66">
         <v>12</v>
       </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
         <v>8</v>
       </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
         <v>9</v>
       </c>
-      <c r="R66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4639,25 +5437,37 @@
         <v>4</v>
       </c>
       <c r="M67">
+        <f t="shared" ref="M67:M130" si="3">IF(L67=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="4">IF(L67=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="5">IF(L67=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P67">
         <v>11</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
         <v>35</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
         <v>19</v>
       </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4695,25 +5505,37 @@
         <v>2</v>
       </c>
       <c r="M68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
         <v>23</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
         <v>8</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
         <v>60</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4751,25 +5573,37 @@
         <v>4</v>
       </c>
       <c r="M69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P69">
         <v>7</v>
       </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>7</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
         <v>7</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4807,25 +5641,37 @@
         <v>4</v>
       </c>
       <c r="M70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P70">
         <v>19</v>
       </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
         <v>26</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
         <v>6</v>
       </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4863,25 +5709,37 @@
         <v>4</v>
       </c>
       <c r="M71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
         <v>16</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
         <v>20</v>
       </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
         <v>23</v>
       </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4919,25 +5777,37 @@
         <v>4</v>
       </c>
       <c r="M72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P72">
         <v>15</v>
       </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
       <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
         <v>15</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4975,25 +5845,37 @@
         <v>4</v>
       </c>
       <c r="M73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P73">
         <v>6</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
         <v>13</v>
       </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
         <v>23</v>
       </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5031,25 +5913,37 @@
         <v>4</v>
       </c>
       <c r="M74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>2</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
         <v>9</v>
       </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
         <v>9</v>
       </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5087,25 +5981,37 @@
         <v>4</v>
       </c>
       <c r="M75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>6</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
         <v>14</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
         <v>14</v>
       </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5143,25 +6049,37 @@
         <v>3</v>
       </c>
       <c r="M76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
         <v>8</v>
       </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>8</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
         <v>2</v>
       </c>
-      <c r="R76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5199,25 +6117,37 @@
         <v>4</v>
       </c>
       <c r="M77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
         <v>18</v>
       </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
         <v>51</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
         <v>18</v>
       </c>
-      <c r="R77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5255,25 +6185,37 @@
         <v>4</v>
       </c>
       <c r="M78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>12</v>
       </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
         <v>22</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
         <v>22</v>
       </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5311,25 +6253,37 @@
         <v>4</v>
       </c>
       <c r="M79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P79">
         <v>7</v>
       </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
         <v>16</v>
       </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
         <v>16</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5367,25 +6321,37 @@
         <v>4</v>
       </c>
       <c r="M80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>6</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
         <v>2</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
         <v>2</v>
       </c>
-      <c r="R80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5423,25 +6389,37 @@
         <v>2</v>
       </c>
       <c r="M81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
         <v>10</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
         <v>10</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
         <v>22</v>
       </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5479,25 +6457,37 @@
         <v>4</v>
       </c>
       <c r="M82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P82">
         <v>12</v>
       </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
         <v>20</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>5</v>
       </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5535,25 +6525,37 @@
         <v>4</v>
       </c>
       <c r="M83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P83">
         <v>5</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
         <v>5</v>
       </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83">
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
         <v>14</v>
       </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5591,25 +6593,37 @@
         <v>4</v>
       </c>
       <c r="M84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P84">
         <v>12</v>
       </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>12</v>
       </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
         <v>12</v>
       </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5647,25 +6661,37 @@
         <v>4</v>
       </c>
       <c r="M85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>6</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
       <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
         <v>41</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5703,25 +6729,37 @@
         <v>4</v>
       </c>
       <c r="M86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P86">
         <v>9</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
         <v>9</v>
       </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
         <v>21</v>
       </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5759,25 +6797,37 @@
         <v>4</v>
       </c>
       <c r="M87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>18</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
         <v>7</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
         <v>56</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5815,25 +6865,37 @@
         <v>4</v>
       </c>
       <c r="M88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P88">
         <v>7</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
         <v>42</v>
       </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
         <v>67</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5871,25 +6933,37 @@
         <v>3</v>
       </c>
       <c r="M89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
         <v>11</v>
       </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
         <v>11</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
         <v>11</v>
       </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5927,25 +7001,37 @@
         <v>4</v>
       </c>
       <c r="M90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P90">
         <v>9</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
         <v>17</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
         <v>17</v>
       </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5983,25 +7069,37 @@
         <v>1</v>
       </c>
       <c r="M91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
         <v>11</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
         <v>11</v>
       </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91">
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
         <v>18</v>
       </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6039,25 +7137,37 @@
         <v>4</v>
       </c>
       <c r="M92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P92">
         <v>6</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
         <v>6</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
         <v>14</v>
       </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6095,25 +7205,37 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N93">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>4</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
         <v>8</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
         <v>5</v>
       </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6151,25 +7273,37 @@
         <v>2</v>
       </c>
       <c r="M94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
         <v>5</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
         <v>10</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
         <v>5</v>
       </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6207,25 +7341,37 @@
         <v>4</v>
       </c>
       <c r="M95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P95">
         <v>11</v>
       </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
         <v>8</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
         <v>31</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6263,25 +7409,37 @@
         <v>3</v>
       </c>
       <c r="M96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
         <v>9</v>
       </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
         <v>7</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96">
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
         <v>23</v>
       </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6319,25 +7477,37 @@
         <v>4</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O97">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>4</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
         <v>14</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97">
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
         <v>46</v>
       </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6375,25 +7545,37 @@
         <v>4</v>
       </c>
       <c r="M98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P98">
         <v>5</v>
       </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
       <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
         <v>38</v>
       </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6431,25 +7613,37 @@
         <v>4</v>
       </c>
       <c r="M99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P99">
         <v>8</v>
       </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
         <v>3</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99">
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
         <v>35</v>
       </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6487,25 +7681,37 @@
         <v>4</v>
       </c>
       <c r="M100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P100">
         <v>13</v>
       </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
         <v>21</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
         <v>21</v>
       </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6543,25 +7749,37 @@
         <v>4</v>
       </c>
       <c r="M101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P101">
         <v>11</v>
       </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
         <v>3</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101">
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
         <v>11</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6599,25 +7817,37 @@
         <v>4</v>
       </c>
       <c r="M102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P102">
         <v>29</v>
       </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
         <v>49</v>
       </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
         <v>16</v>
       </c>
-      <c r="R102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6655,25 +7885,37 @@
         <v>1</v>
       </c>
       <c r="M103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P103">
         <v>13</v>
       </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>13</v>
       </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
         <v>13</v>
       </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6711,25 +7953,37 @@
         <v>4</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O104">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
         <v>12</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
         <v>12</v>
       </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6767,25 +8021,37 @@
         <v>4</v>
       </c>
       <c r="M105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P105">
         <v>6</v>
       </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
         <v>6</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
         <v>13</v>
       </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6823,25 +8089,37 @@
         <v>4</v>
       </c>
       <c r="M106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P106">
         <v>6</v>
       </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106">
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
         <v>23</v>
       </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
         <v>23</v>
       </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6879,25 +8157,37 @@
         <v>4</v>
       </c>
       <c r="M107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
         <v>3</v>
       </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
         <v>31</v>
       </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
         <v>31</v>
       </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6935,25 +8225,37 @@
         <v>1</v>
       </c>
       <c r="M108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
         <v>2</v>
       </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
         <v>2</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-      <c r="Q108">
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
         <v>10</v>
       </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6991,25 +8293,37 @@
         <v>2</v>
       </c>
       <c r="M109">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
         <v>17</v>
       </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7047,25 +8361,37 @@
         <v>4</v>
       </c>
       <c r="M110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P110">
         <v>5</v>
       </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
         <v>18</v>
       </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
         <v>18</v>
       </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7103,25 +8429,37 @@
         <v>4</v>
       </c>
       <c r="M111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P111">
         <v>6</v>
       </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
         <v>5</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="Q111">
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
         <v>33</v>
       </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7159,25 +8497,37 @@
         <v>4</v>
       </c>
       <c r="M112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P112">
         <v>9</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
         <v>8</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="Q112">
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
         <v>17</v>
       </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7215,25 +8565,37 @@
         <v>4</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O113">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
         <v>11</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-      <c r="Q113">
+      <c r="S113">
+        <v>1</v>
+      </c>
+      <c r="T113">
         <v>13</v>
       </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7271,25 +8633,37 @@
         <v>4</v>
       </c>
       <c r="M114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P114">
         <v>5</v>
       </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
       <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
         <v>35</v>
       </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7327,25 +8701,37 @@
         <v>4</v>
       </c>
       <c r="M115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P115">
         <v>7</v>
       </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-      <c r="O115">
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
         <v>7</v>
       </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-      <c r="Q115">
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
         <v>71</v>
       </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7383,25 +8769,37 @@
         <v>4</v>
       </c>
       <c r="M116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P116">
         <v>11</v>
       </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
         <v>11</v>
       </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
         <v>3</v>
       </c>
-      <c r="R116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7439,25 +8837,37 @@
         <v>4</v>
       </c>
       <c r="M117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P117">
         <v>6</v>
       </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117">
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
         <v>31</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-      <c r="Q117">
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
         <v>42</v>
       </c>
-      <c r="R117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7495,25 +8905,37 @@
         <v>3</v>
       </c>
       <c r="M118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
         <v>8</v>
       </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
         <v>8</v>
       </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
         <v>5</v>
       </c>
-      <c r="R118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7551,25 +8973,37 @@
         <v>1</v>
       </c>
       <c r="M119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
         <v>3</v>
       </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
         <v>2</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="Q119">
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
         <v>30</v>
       </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7607,25 +9041,37 @@
         <v>4</v>
       </c>
       <c r="M120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P120">
         <v>6</v>
       </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
         <v>38</v>
       </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
         <v>38</v>
       </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7663,25 +9109,37 @@
         <v>4</v>
       </c>
       <c r="M121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
         <v>16</v>
       </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
         <v>16</v>
       </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
         <v>16</v>
       </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7719,25 +9177,37 @@
         <v>2</v>
       </c>
       <c r="M122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
         <v>20</v>
       </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
         <v>20</v>
       </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
         <v>20</v>
       </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7775,25 +9245,37 @@
         <v>4</v>
       </c>
       <c r="M123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P123">
         <v>30</v>
       </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
         <v>2</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-      <c r="Q123">
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
         <v>30</v>
       </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7831,25 +9313,37 @@
         <v>4</v>
       </c>
       <c r="M124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
         <v>2</v>
       </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-      <c r="O124">
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
         <v>7</v>
       </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
         <v>7</v>
       </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7887,25 +9381,37 @@
         <v>2</v>
       </c>
       <c r="M125">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
         <v>8</v>
       </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-      <c r="O125">
+      <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
         <v>6</v>
       </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-      <c r="Q125">
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
         <v>22</v>
       </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7943,25 +9449,37 @@
         <v>4</v>
       </c>
       <c r="M126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P126">
         <v>13</v>
       </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
       <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>1</v>
+      </c>
+      <c r="T126">
         <v>5</v>
       </c>
-      <c r="R126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7999,25 +9517,37 @@
         <v>4</v>
       </c>
       <c r="M127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P127">
         <v>13</v>
       </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>1</v>
-      </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
       <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
         <v>31</v>
       </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8055,25 +9585,37 @@
         <v>4</v>
       </c>
       <c r="M128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P128">
         <v>17</v>
       </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
         <v>17</v>
       </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
         <v>10</v>
       </c>
-      <c r="R128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8111,25 +9653,37 @@
         <v>4</v>
       </c>
       <c r="M129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P129">
         <v>14</v>
       </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
         <v>14</v>
       </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
         <v>14</v>
       </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8167,25 +9721,37 @@
         <v>4</v>
       </c>
       <c r="M130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P130">
         <v>13</v>
       </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
         <v>5</v>
       </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130">
         <v>13</v>
       </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8223,25 +9789,37 @@
         <v>4</v>
       </c>
       <c r="M131">
+        <f t="shared" ref="M131:M155" si="6">IF(L131=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N155" si="7">IF(L131=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O155" si="8">IF(L131=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P131">
         <v>24</v>
       </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
         <v>7</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-      <c r="Q131">
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
         <v>17</v>
       </c>
-      <c r="R131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8279,25 +9857,37 @@
         <v>1</v>
       </c>
       <c r="M132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
         <v>14</v>
       </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132">
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
         <v>21</v>
       </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
         <v>21</v>
       </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8335,25 +9925,37 @@
         <v>4</v>
       </c>
       <c r="M133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P133">
         <v>8</v>
       </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
         <v>19</v>
       </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-      <c r="Q133">
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
         <v>25</v>
       </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8391,25 +9993,37 @@
         <v>4</v>
       </c>
       <c r="M134">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P134">
         <v>23</v>
       </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
         <v>23</v>
       </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
         <v>8</v>
       </c>
-      <c r="R134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8447,25 +10061,37 @@
         <v>4</v>
       </c>
       <c r="M135">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P135">
         <v>17</v>
       </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135">
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
         <v>17</v>
       </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
         <v>11</v>
       </c>
-      <c r="R135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8503,25 +10129,37 @@
         <v>4</v>
       </c>
       <c r="M136">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P136">
         <v>19</v>
       </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
         <v>31</v>
       </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
         <v>31</v>
       </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8559,25 +10197,37 @@
         <v>4</v>
       </c>
       <c r="M137">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P137">
         <v>14</v>
       </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-      <c r="O137">
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
         <v>20</v>
       </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
         <v>20</v>
       </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8615,25 +10265,37 @@
         <v>4</v>
       </c>
       <c r="M138">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P138">
         <v>15</v>
       </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
         <v>22</v>
       </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
         <v>22</v>
       </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8671,25 +10333,37 @@
         <v>3</v>
       </c>
       <c r="M139">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
         <v>13</v>
       </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
         <v>3</v>
       </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139">
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="T139">
         <v>13</v>
       </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8727,25 +10401,37 @@
         <v>2</v>
       </c>
       <c r="M140">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
         <v>49</v>
       </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
         <v>49</v>
       </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>4</v>
-      </c>
-      <c r="R140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>4</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8783,25 +10469,37 @@
         <v>4</v>
       </c>
       <c r="M141">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P141">
         <v>14</v>
       </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
         <v>10</v>
       </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
-      <c r="Q141">
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
         <v>14</v>
       </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8839,25 +10537,37 @@
         <v>4</v>
       </c>
       <c r="M142">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P142">
         <v>6</v>
       </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142">
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
         <v>5</v>
       </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-      <c r="Q142">
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
         <v>49</v>
       </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8895,25 +10605,37 @@
         <v>4</v>
       </c>
       <c r="M143">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P143">
         <v>12</v>
       </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
         <v>12</v>
       </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
         <v>12</v>
       </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8951,25 +10673,37 @@
         <v>3</v>
       </c>
       <c r="M144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
         <v>14</v>
       </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>1</v>
-      </c>
-      <c r="P144">
-        <v>1</v>
-      </c>
       <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
         <v>14</v>
       </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9007,25 +10741,37 @@
         <v>4</v>
       </c>
       <c r="M145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P145">
         <v>32</v>
       </c>
-      <c r="N145">
-        <v>1</v>
-      </c>
-      <c r="O145">
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
         <v>38</v>
       </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
         <v>38</v>
       </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9063,25 +10809,37 @@
         <v>2</v>
       </c>
       <c r="M146">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
         <v>12</v>
       </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
         <v>13</v>
       </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
-      <c r="Q146">
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="T146">
         <v>41</v>
       </c>
-      <c r="R146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9119,25 +10877,37 @@
         <v>4</v>
       </c>
       <c r="M147">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P147">
         <v>10</v>
       </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147">
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
         <v>18</v>
       </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
         <v>18</v>
       </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9175,25 +10945,37 @@
         <v>4</v>
       </c>
       <c r="M148">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P148">
         <v>8</v>
       </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-      <c r="O148">
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
         <v>8</v>
       </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
         <v>8</v>
       </c>
-      <c r="R148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9231,25 +11013,37 @@
         <v>4</v>
       </c>
       <c r="M149">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P149">
         <v>15</v>
       </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149">
+      <c r="Q149">
+        <v>1</v>
+      </c>
+      <c r="R149">
         <v>39</v>
       </c>
-      <c r="P149">
-        <v>1</v>
-      </c>
-      <c r="Q149">
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149">
         <v>76</v>
       </c>
-      <c r="R149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9287,25 +11081,37 @@
         <v>4</v>
       </c>
       <c r="M150">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P150">
         <v>8</v>
       </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150">
+      <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
         <v>62</v>
       </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
         <v>62</v>
       </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9343,25 +11149,37 @@
         <v>1</v>
       </c>
       <c r="M151">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
         <v>5</v>
       </c>
-      <c r="N151">
-        <v>1</v>
-      </c>
-      <c r="O151">
+      <c r="Q151">
+        <v>1</v>
+      </c>
+      <c r="R151">
         <v>17</v>
       </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
         <v>17</v>
       </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9399,25 +11217,37 @@
         <v>4</v>
       </c>
       <c r="M152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P152">
         <v>7</v>
       </c>
-      <c r="N152">
-        <v>1</v>
-      </c>
-      <c r="O152">
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
         <v>6</v>
       </c>
-      <c r="P152">
-        <v>1</v>
-      </c>
-      <c r="Q152">
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152">
         <v>17</v>
       </c>
-      <c r="R152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9455,25 +11285,37 @@
         <v>4</v>
       </c>
       <c r="M153">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P153">
         <v>19</v>
       </c>
-      <c r="N153">
-        <v>1</v>
-      </c>
-      <c r="O153">
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
         <v>3</v>
       </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-      <c r="Q153">
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="T153">
         <v>42</v>
       </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9511,25 +11353,37 @@
         <v>4</v>
       </c>
       <c r="M154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P154">
         <v>10</v>
       </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-      <c r="O154">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
         <v>10</v>
       </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
         <v>2</v>
       </c>
-      <c r="R154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9567,21 +11421,33 @@
         <v>4</v>
       </c>
       <c r="M155">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P155">
         <v>10</v>
       </c>
-      <c r="N155">
-        <v>1</v>
-      </c>
-      <c r="O155">
+      <c r="Q155">
+        <v>1</v>
+      </c>
+      <c r="R155">
         <v>27</v>
       </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
         <v>27</v>
       </c>
-      <c r="R155">
+      <c r="U155">
         <v>0</v>
       </c>
     </row>
